--- a/testData/the_test_process.xlsx
+++ b/testData/the_test_process.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <bookViews>
-    <workbookView xWindow="600" yWindow="570" windowWidth="27735" windowHeight="11700" activeTab="3"/>
-  </bookViews>
-  <sheets>
-    <sheet name="测试用例" sheetId="1" r:id="rId1"/>
-    <sheet name="登录" sheetId="2" r:id="rId2"/>
-    <sheet name="店员信息" sheetId="3" r:id="rId3"/>
-    <sheet name="创建店员" sheetId="4" r:id="rId4"/>
-  </sheets>
-  <calcPr calcId="125725"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="1"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="测试用例" sheetId="1" r:id="rId1"/>
+    <s:sheet name="登录" sheetId="2" r:id="rId2"/>
+    <s:sheet name="店员信息" sheetId="3" r:id="rId3"/>
+    <s:sheet name="创建店员" sheetId="4" r:id="rId4"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>序号</t>
   </si>
@@ -73,6 +73,9 @@
     <t>店员信息</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>测试步骤描述</t>
   </si>
   <si>
@@ -106,6 +109,12 @@
     <t>firefox</t>
   </si>
   <si>
+    <t>2019-06-06 16:57:19</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
     <t>访问UAT1电商首页</t>
   </si>
   <si>
@@ -115,6 +124,9 @@
     <t>https://premall.gree.com</t>
   </si>
   <si>
+    <t>2019-06-06 16:56:34</t>
+  </si>
+  <si>
     <t>隐式等待5s</t>
   </si>
   <si>
@@ -133,6 +145,9 @@
     <t>sleep</t>
   </si>
   <si>
+    <t>2019-06-06 16:56:37</t>
+  </si>
+  <si>
     <t>点击定位区域</t>
   </si>
   <si>
@@ -148,7 +163,7 @@
     <t>点击s区域</t>
   </si>
   <si>
-    <t>/html/body/div[2]/div/div[1]/div[2]/div/h2/a[11]</t>
+    <t>/html/body/div[2]/div/div[1]/div[2]/div/h2</t>
   </si>
   <si>
     <t>定位区域至西安</t>
@@ -318,37 +333,45 @@
   </si>
   <si>
     <t>enter</t>
+  </si>
+  <si>
+    <t>2019-06-06 16:57:21</t>
+  </si>
+  <si>
+    <t>2019-06-06 16:57:24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF008B00"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF008B00"/>
+      <sz val="11"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -364,41 +387,41 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="22" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -688,22 +711,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="31.625" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="25.75" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="21.25" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" width="14.5"/>
+    <col customWidth="1" max="3" min="3" width="31.625"/>
+    <col customWidth="1" max="4" min="4" width="14.875"/>
+    <col customWidth="1" max="5" min="5" width="19.625"/>
+    <col customWidth="1" max="6" min="6" width="25.75"/>
+    <col customWidth="1" max="7" min="7" width="11"/>
+    <col customWidth="1" max="8" min="8" width="21.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -735,8 +762,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
-      <c r="A2" s="1">
+    <row customHeight="1" ht="15" r="2" spans="1:9">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -754,10 +781,10 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="1">
+      <c r="I2" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="3" spans="1:9">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -776,34 +803,37 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="I3" s="4" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="32.625" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="5" width="61.75" customWidth="1"/>
-    <col min="6" max="6" width="33.25" customWidth="1"/>
-    <col min="7" max="7" width="25.125" customWidth="1"/>
-    <col min="9" max="9" width="20.75" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" width="30"/>
+    <col customWidth="1" max="3" min="3" width="32.625"/>
+    <col customWidth="1" max="4" min="4" width="25.75"/>
+    <col customWidth="1" max="5" min="5" width="61.75"/>
+    <col customWidth="1" max="6" min="6" width="33.25"/>
+    <col customWidth="1" max="7" min="7" width="25.125"/>
+    <col customWidth="1" max="9" min="9" width="20.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -811,513 +841,536 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="1">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="2" spans="1:13">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="n"/>
+      <c r="E2" s="1" t="n"/>
       <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="A3" s="1">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1" t="s"/>
+      <c r="J2" s="1" t="s"/>
+      <c r="K2" s="1" t="n"/>
+      <c r="L2" s="1" t="n"/>
+      <c r="M2" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="3" spans="1:13">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1">
-      <c r="A4" s="1">
+      <c r="I3" s="1" t="s"/>
+      <c r="J3" s="1" t="s"/>
+      <c r="K3" s="1" t="n"/>
+      <c r="L3" s="1" t="n"/>
+      <c r="M3" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="4" spans="1:13">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1">
-      <c r="A5" s="1">
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="1" t="s"/>
+      <c r="J4" s="1" t="s"/>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="1" t="n"/>
+      <c r="M4" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="5" spans="1:13">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1">
-      <c r="A6" s="1">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="1" t="s"/>
+      <c r="J5" s="1" t="s"/>
+      <c r="K5" s="1" t="n"/>
+      <c r="L5" s="1" t="n"/>
+      <c r="M5" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="6" spans="1:13">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="1" t="s"/>
+      <c r="J6" s="1" t="s"/>
+      <c r="K6" s="1" t="n"/>
+      <c r="L6" s="1" t="n"/>
+      <c r="M6" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="7" spans="1:13">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="1" t="n"/>
+      <c r="J7" s="1" t="n"/>
+      <c r="K7" s="1" t="n"/>
+      <c r="L7" s="1" t="n"/>
+      <c r="M7" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="8" spans="1:13">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="1" t="n"/>
+      <c r="J8" s="1" t="n"/>
+      <c r="K8" s="1" t="n"/>
+      <c r="L8" s="1" t="n"/>
+      <c r="M8" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="9" spans="1:13">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+      <c r="H9" s="3" t="n"/>
+      <c r="I9" s="1" t="n"/>
+      <c r="J9" s="1" t="n"/>
+      <c r="K9" s="1" t="n"/>
+      <c r="L9" s="1" t="n"/>
+      <c r="M9" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="10" spans="1:13">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1">
-      <c r="A11" s="1">
+      <c r="G10" s="1" t="n"/>
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="1" t="n"/>
+      <c r="J10" s="1" t="n"/>
+      <c r="K10" s="1" t="n"/>
+      <c r="L10" s="1" t="n"/>
+      <c r="M10" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="11" spans="1:13">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1">
-      <c r="A12" s="1">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="1" t="n"/>
+      <c r="J11" s="1" t="n"/>
+      <c r="K11" s="1" t="n"/>
+      <c r="L11" s="1" t="n"/>
+      <c r="M11" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="12" spans="1:13">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
       <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A13" s="1">
+      <c r="G12" s="1" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="1" t="n"/>
+      <c r="J12" s="1" t="n"/>
+      <c r="K12" s="1" t="n"/>
+      <c r="L12" s="1" t="n"/>
+      <c r="M12" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="19.9" r="13" spans="1:13">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1">
-      <c r="A14" s="1">
+        <v>54</v>
+      </c>
+      <c r="F13" s="1" t="n"/>
+      <c r="G13" s="1" t="n"/>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="1" t="n"/>
+      <c r="J13" s="1" t="n"/>
+      <c r="K13" s="1" t="n"/>
+      <c r="L13" s="1" t="n"/>
+      <c r="M13" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="14" spans="1:13">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n"/>
+      <c r="F14" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1">
-      <c r="A15" s="1">
+      <c r="G14" s="1" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="1" t="n"/>
+      <c r="J14" s="1" t="n"/>
+      <c r="K14" s="1" t="n"/>
+      <c r="L14" s="1" t="n"/>
+      <c r="M14" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="15" spans="1:13">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
       <c r="F15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1">
-      <c r="A16" s="1">
+        <v>56</v>
+      </c>
+      <c r="G15" s="1" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="1" t="n"/>
+      <c r="J15" s="1" t="n"/>
+      <c r="K15" s="1" t="n"/>
+      <c r="L15" s="1" t="n"/>
+      <c r="M15" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="16" spans="1:13">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="1">
+        <v>60</v>
+      </c>
+      <c r="F16" s="1" t="n">
         <v>18291004253</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1">
-      <c r="A17" s="1">
+      <c r="G16" s="1" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="1" t="n"/>
+      <c r="J16" s="1" t="n"/>
+      <c r="K16" s="1" t="n"/>
+      <c r="L16" s="1" t="n"/>
+      <c r="M16" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="17" spans="1:13">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1">
-      <c r="A18" s="1">
+        <v>63</v>
+      </c>
+      <c r="G17" s="1" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="1" t="n"/>
+      <c r="J17" s="1" t="n"/>
+      <c r="K17" s="1" t="n"/>
+      <c r="L17" s="1" t="n"/>
+      <c r="M17" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="18" spans="1:13">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1">
-      <c r="A19" s="1">
+        <v>64</v>
+      </c>
+      <c r="F18" s="1" t="n"/>
+      <c r="G18" s="1" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="1" t="n"/>
+      <c r="J18" s="1" t="n"/>
+      <c r="K18" s="1" t="n"/>
+      <c r="L18" s="1" t="n"/>
+      <c r="M18" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="19" spans="1:13">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="1" t="n"/>
+      <c r="F19" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1">
-      <c r="A20" s="1">
+      <c r="G19" s="1" t="n"/>
+      <c r="H19" s="3" t="n"/>
+      <c r="I19" s="1" t="n"/>
+      <c r="J19" s="1" t="n"/>
+      <c r="K19" s="1" t="n"/>
+      <c r="L19" s="1" t="n"/>
+      <c r="M19" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="20" spans="1:13">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="D20" s="1" t="n"/>
+      <c r="E20" s="1" t="n"/>
       <c r="F20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="G20" s="1" t="n"/>
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="1" t="n"/>
+      <c r="J20" s="1" t="n"/>
+      <c r="K20" s="1" t="n"/>
+      <c r="L20" s="1" t="n"/>
+      <c r="M20" s="1" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="16.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="5" customWidth="1"/>
-    <col min="6" max="7" width="22.125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="5" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="11.5"/>
+    <col customWidth="1" max="2" min="2" style="5" width="16.875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="11.375"/>
+    <col customWidth="1" max="4" min="4" style="5" width="14.75"/>
+    <col customWidth="1" max="5" min="5" style="5" width="13.625"/>
+    <col customWidth="1" max="7" min="6" style="5" width="22.125"/>
+    <col customWidth="1" max="8" min="8" style="5" width="10.375"/>
+    <col customWidth="1" max="9" min="9" style="5" width="15.5"/>
+    <col customWidth="1" max="10" min="10" style="5" width="10.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1325,22 +1378,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>6</v>
@@ -1349,63 +1402,65 @@
         <v>7</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2" spans="1:10">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="5" t="n">
         <v>18512345682</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2"/>
-      <c r="J2" s="4"/>
+      <c r="J2" s="4" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="1200" orientation="portrait" paperSize="9" verticalDpi="1200"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="50.875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
-    <col min="7" max="7" width="22.125" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" width="20.875"/>
+    <col customWidth="1" max="3" min="3" width="32.5"/>
+    <col customWidth="1" max="4" min="4" width="19.625"/>
+    <col customWidth="1" max="5" min="5" style="9" width="50.875"/>
+    <col customWidth="1" max="6" min="6" width="11.375"/>
+    <col customWidth="1" max="7" min="7" width="22.125"/>
+    <col customWidth="1" max="8" min="8" width="12.75"/>
+    <col customWidth="1" max="9" min="9" width="13.5"/>
+    <col customWidth="1" max="10" min="10" width="13.125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1413,365 +1468,364 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1">
-      <c r="A2" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="2" spans="1:13">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1">
-      <c r="A3" s="5">
+        <v>78</v>
+      </c>
+      <c r="F2" s="5" t="n"/>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="6" t="n"/>
+      <c r="I2" s="5" t="n"/>
+      <c r="J2" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="3" spans="1:13">
+      <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1">
-      <c r="A4" s="5">
+        <v>80</v>
+      </c>
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="6" t="n"/>
+      <c r="I3" s="5" t="n"/>
+      <c r="J3" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="4" spans="1:13">
+      <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1">
-      <c r="A5" s="5">
+        <v>82</v>
+      </c>
+      <c r="F4" s="5" t="n"/>
+      <c r="G4" s="5" t="n"/>
+      <c r="H4" s="6" t="n"/>
+      <c r="I4" s="5" t="n"/>
+      <c r="J4" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="5" spans="1:13">
+      <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1">
-      <c r="A6" s="5">
+        <v>84</v>
+      </c>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+      <c r="H5" s="6" t="n"/>
+      <c r="I5" s="5" t="n"/>
+      <c r="J5" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="6" spans="1:13">
+      <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="5">
+        <v>41</v>
+      </c>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="8" t="n"/>
+      <c r="F6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1">
-      <c r="A7" s="5">
+      <c r="G6" s="5" t="n"/>
+      <c r="H6" s="6" t="n"/>
+      <c r="I6" s="5" t="n"/>
+      <c r="J6" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="7" spans="1:13">
+      <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1">
-      <c r="A8" s="5">
+        <v>87</v>
+      </c>
+      <c r="G7" s="5" t="n"/>
+      <c r="H7" s="6" t="n"/>
+      <c r="I7" s="5" t="n"/>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="1" t="n"/>
+      <c r="L7" s="1" t="n"/>
+      <c r="M7" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="8" spans="1:13">
+      <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="5" t="n"/>
+      <c r="H8" s="6" t="n"/>
+      <c r="I8" s="5" t="n"/>
+      <c r="J8" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="9" spans="1:13">
+      <c r="A9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="5" t="n"/>
+      <c r="H9" s="6" t="n"/>
+      <c r="I9" s="5" t="n"/>
+      <c r="J9" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="10" spans="1:13">
+      <c r="A10" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="5" t="n"/>
+      <c r="H10" s="6" t="n"/>
+      <c r="I10" s="5" t="n"/>
+      <c r="J10" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="91.90000000000001" r="11" spans="1:13">
+      <c r="A11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="5" t="n"/>
+      <c r="H11" s="6" t="n"/>
+      <c r="I11" s="5" t="n"/>
+      <c r="J11" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="12" spans="1:13">
+      <c r="A12" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="5" t="n"/>
+      <c r="H12" s="6" t="n"/>
+      <c r="I12" s="5" t="n"/>
+      <c r="J12" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="13" spans="1:13">
+      <c r="A13" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" ht="91.9" customHeight="1">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="C13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="5">
+        <v>41</v>
+      </c>
+      <c r="D13" s="5" t="n"/>
+      <c r="E13" s="8" t="n"/>
+      <c r="F13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1">
-      <c r="A14" s="5">
+      <c r="G13" s="5" t="n"/>
+      <c r="H13" s="6" t="n"/>
+      <c r="I13" s="5" t="n"/>
+      <c r="J13" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="14" spans="1:13">
+      <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1">
-      <c r="A15" s="5">
+        <v>64</v>
+      </c>
+      <c r="F14" s="5" t="n"/>
+      <c r="G14" s="5" t="n"/>
+      <c r="H14" s="6" t="n"/>
+      <c r="I14" s="5" t="n"/>
+      <c r="J14" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="15" spans="1:13">
+      <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="5">
+        <v>41</v>
+      </c>
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="8" t="n"/>
+      <c r="F15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1">
-      <c r="A16" s="5">
+      <c r="G15" s="5" t="n"/>
+      <c r="H15" s="6" t="n"/>
+      <c r="I15" s="5" t="n"/>
+      <c r="J15" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="16" spans="1:13">
+      <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="H16" s="4" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/testData/the_test_process.xlsx
+++ b/testData/the_test_process.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -793,7 +793,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>

--- a/testData/the_test_process.xlsx
+++ b/testData/the_test_process.xlsx
@@ -11,13 +11,14 @@
     <sheet name="登录" sheetId="2" r:id="rId2"/>
     <sheet name="店员信息" sheetId="3" r:id="rId3"/>
     <sheet name="创建店员" sheetId="4" r:id="rId4"/>
+    <sheet name="搜索" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="114">
   <si>
     <t>序号</t>
   </si>
@@ -309,13 +310,68 @@
   </si>
   <si>
     <t>enter</t>
+  </si>
+  <si>
+    <t>https://pre2mall.gree.com/</t>
+  </si>
+  <si>
+    <t>隐式等待5s</t>
+  </si>
+  <si>
+    <t>implicitly_wait</t>
+  </si>
+  <si>
+    <t>显示等待3s</t>
+  </si>
+  <si>
+    <t>断言页面存在搜索</t>
+  </si>
+  <si>
+    <t>搜索</t>
+  </si>
+  <si>
+    <t>输入搜索内容</t>
+  </si>
+  <si>
+    <t>keyword_searchForm</t>
+  </si>
+  <si>
+    <t>空调</t>
+  </si>
+  <si>
+    <t>点击搜索</t>
+  </si>
+  <si>
+    <t>/html/body/div[7]/div[2]/div[1]/button</t>
+  </si>
+  <si>
+    <t>隐式等待10s</t>
+  </si>
+  <si>
+    <t>断言登录成功</t>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品搜索</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +398,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -360,10 +423,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -394,9 +458,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -690,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -780,6 +854,26 @@
         <v>18</v>
       </c>
       <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1699,4 +1793,250 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="40.125" customWidth="1"/>
+    <col min="6" max="6" width="32.625" customWidth="1"/>
+    <col min="7" max="7" width="26.25" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" ht="15">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12">
+        <v>5</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12">
+        <v>3</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="A8" s="12">
+        <v>15</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="12">
+        <v>17</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="12">
+        <v>18</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12">
+        <v>10</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="12">
+        <v>19</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>